--- a/PreqKpiAgent API- 21'04.xlsx
+++ b/PreqKpiAgent API- 21'04.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D22E0-664A-46CA-8A17-E0558CA8E32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7A0331-D1C4-4398-A5FE-0EB2B6EC2262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="324" windowWidth="21924" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="492" windowWidth="22488" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Op" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>/op</t>
   </si>
@@ -55,6 +56,33 @@
   </si>
   <si>
     <t>/getFileAsStreamData</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/updMonRsltList?fabName=FAB18</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/getCaseList</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/getMonRsltList</t>
+  </si>
+  <si>
+    <t>fabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAB18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updMonRsltList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCaseList</t>
+  </si>
+  <si>
+    <t>/getMonRsltList</t>
   </si>
 </sst>
 </file>
@@ -379,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I6"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -390,7 +418,7 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -407,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE(B3,C3,D3,E3)</f>
+        <f t="shared" ref="I3:I15" si="0">CONCATENATE(B3,C3,D3,E3, IF(ISBLANK(F3), "", CONCATENATE("?",F3,"=",G3)))</f>
         <v>http://localhost:8081/op/getPath</v>
       </c>
     </row>
@@ -425,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE(B4,C4,D4,E4)</f>
+        <f t="shared" si="0"/>
         <v>http://localhost:8081/op/getDisk</v>
       </c>
     </row>
@@ -449,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE(B5,C5,D5,E5,"?",F5,"=",G5)</f>
+        <f t="shared" si="0"/>
         <v>http://localhost:8081/op/getFile?name=case/tstFacHistory.txt</v>
       </c>
     </row>
@@ -473,8 +501,126 @@
         <v>5</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE(B6,C6,D6,E6,"?",F6,"=",G6)</f>
+        <f t="shared" si="0"/>
         <v>http://localhost:8081/op/getFileAsStreamData?name=case/tstFacHistory.txt</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>http://localhost:8081/updMonRsltList?fabName=FAB18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="str">
+        <f>CONCATENATE(B14,C14,D14,E14, IF(ISBLANK(F14), "", CONCATENATE("?",F14,"=",G14)))</f>
+        <v>http://localhost:8081/getCaseList</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>http://localhost:8081/getMonRsltList</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87525478-802A-463E-9913-EF6224CFEE81}">
+  <dimension ref="B3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
